--- a/Titus/Gurobi code/Final/Input/J-Dinsdag.xlsx
+++ b/Titus/Gurobi code/Final/Input/J-Dinsdag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documenten\Werk\IntegrativePractical5\Titus\Gurobi code\Final\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D49AD817-62E2-486B-AD42-92E37491294D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEFB9F1E-7FF9-418F-A4C2-DC5E3EDC7D71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11385" xr2:uid="{9DE2369B-021B-439D-984E-70EDFBA39D6D}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{5A76A36D-031E-4584-A76A-90881ECAF047}"/>
   </bookViews>
   <sheets>
     <sheet name="Tuesday" sheetId="1" r:id="rId1"/>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DEDA635-AAE1-42BD-B258-C499029773C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B61262E7-9E19-437D-94AC-8410AD1A5306}">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -480,13 +480,13 @@
         <v>28</v>
       </c>
       <c r="B1">
-        <v>2842.9598548781451</v>
+        <v>2843</v>
       </c>
       <c r="C1">
-        <v>2218.89549649026</v>
+        <v>2219</v>
       </c>
       <c r="D1">
-        <v>2010.8740436942981</v>
+        <v>2011</v>
       </c>
       <c r="E1">
         <v>0</v>
@@ -500,10 +500,10 @@
         <v>27</v>
       </c>
       <c r="B2">
-        <v>3224.3325183374081</v>
+        <v>3225</v>
       </c>
       <c r="C2">
-        <v>2461.587191418882</v>
+        <v>2462</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -520,16 +520,16 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>3432.3539711333701</v>
+        <v>3433</v>
       </c>
       <c r="C3">
-        <v>3085.651549806767</v>
+        <v>3086</v>
       </c>
       <c r="D3">
-        <v>1906.8633172963171</v>
+        <v>1907</v>
       </c>
       <c r="E3">
-        <v>1733.512106633015</v>
+        <v>1734</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>25</v>
       </c>
       <c r="B4">
-        <v>1802.8525908983361</v>
+        <v>1803</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -560,10 +560,10 @@
         <v>24</v>
       </c>
       <c r="B5">
-        <v>3224.3325183374081</v>
+        <v>3225</v>
       </c>
       <c r="C5">
-        <v>2149.5550122249392</v>
+        <v>2150</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -580,16 +580,16 @@
         <v>23</v>
       </c>
       <c r="B6">
-        <v>3397.6837290007102</v>
+        <v>3398</v>
       </c>
       <c r="C6">
-        <v>2877.630097010805</v>
+        <v>2878</v>
       </c>
       <c r="D6">
-        <v>2010.8740436942981</v>
+        <v>2011</v>
       </c>
       <c r="E6">
-        <v>2010.8740436942981</v>
+        <v>2011</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -600,7 +600,7 @@
         <v>22</v>
       </c>
       <c r="B7">
-        <v>2946.9705812761258</v>
+        <v>2947</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -640,7 +640,7 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>2080.214527959618</v>
+        <v>2081</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -660,10 +660,10 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>2808.2896127454851</v>
+        <v>2809</v>
       </c>
       <c r="C10">
-        <v>2010.8740436942981</v>
+        <v>2011</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>3432.3539711333701</v>
+        <v>3433</v>
       </c>
       <c r="C11">
-        <v>2773.6193706128238</v>
+        <v>2774</v>
       </c>
       <c r="D11">
-        <v>2253.56573862292</v>
+        <v>2254</v>
       </c>
       <c r="E11">
-        <v>1525.490653837054</v>
+        <v>1526</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>2461.587191418882</v>
+        <v>2462</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -720,10 +720,10 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>3328.3432447353889</v>
+        <v>3329</v>
       </c>
       <c r="C13">
-        <v>2357.5764650209012</v>
+        <v>2358</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>2288.2359807555799</v>
+        <v>2289</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>2530.9276756842019</v>
+        <v>2531</v>
       </c>
       <c r="C16">
-        <v>2010.8740436942981</v>
+        <v>2011</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -800,10 +800,10 @@
         <v>12</v>
       </c>
       <c r="B17">
-        <v>2392.2467071535611</v>
+        <v>2393</v>
       </c>
       <c r="C17">
-        <v>2045.544285826958</v>
+        <v>2046</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>10</v>
       </c>
       <c r="B19">
-        <v>2010.8740436942981</v>
+        <v>2011</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -860,10 +860,10 @@
         <v>9</v>
       </c>
       <c r="B20">
-        <v>2461.587191418882</v>
+        <v>2462</v>
       </c>
       <c r="C20">
-        <v>2357.5764650209012</v>
+        <v>2358</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -880,13 +880,13 @@
         <v>8</v>
       </c>
       <c r="B21">
-        <v>2808.2896127454851</v>
+        <v>2809</v>
       </c>
       <c r="C21">
-        <v>2045.544285826958</v>
+        <v>2046</v>
       </c>
       <c r="D21">
-        <v>1976.203801561637</v>
+        <v>1977</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -900,16 +900,16 @@
         <v>7</v>
       </c>
       <c r="B22">
-        <v>3293.673002602729</v>
+        <v>3294</v>
       </c>
       <c r="C22">
-        <v>2426.916949286222</v>
+        <v>2427</v>
       </c>
       <c r="D22">
-        <v>2288.2359807555799</v>
+        <v>2289</v>
       </c>
       <c r="E22">
-        <v>1421.479927439073</v>
+        <v>1422</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>5</v>
       </c>
       <c r="B24">
-        <v>2738.9491284801638</v>
+        <v>2739</v>
       </c>
       <c r="C24">
-        <v>2600.2681599495231</v>
+        <v>2601</v>
       </c>
       <c r="D24">
-        <v>1802.8525908983361</v>
+        <v>1803</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -960,13 +960,13 @@
         <v>4</v>
       </c>
       <c r="B25">
-        <v>2565.5979178168632</v>
+        <v>2566</v>
       </c>
       <c r="C25">
-        <v>2496.2574335515419</v>
+        <v>2497</v>
       </c>
       <c r="D25">
-        <v>2461.587191418882</v>
+        <v>2462</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -980,16 +980,16 @@
         <v>3</v>
       </c>
       <c r="B26">
-        <v>3293.673002602729</v>
+        <v>3294</v>
       </c>
       <c r="C26">
-        <v>3259.002760470069</v>
+        <v>3259</v>
       </c>
       <c r="D26">
-        <v>2392.2467071535611</v>
+        <v>2393</v>
       </c>
       <c r="E26">
-        <v>1594.8311381023741</v>
+        <v>1595</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1000,13 +1000,13 @@
         <v>2</v>
       </c>
       <c r="B27">
-        <v>2496.2574335515419</v>
+        <v>2497</v>
       </c>
       <c r="C27">
-        <v>2426.916949286222</v>
+        <v>2427</v>
       </c>
       <c r="D27">
-        <v>1733.512106633015</v>
+        <v>1734</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>1</v>
       </c>
       <c r="B28">
-        <v>1733.512106633015</v>
+        <v>1734</v>
       </c>
       <c r="C28">
         <v>0</v>
